--- a/element_info_datas/main/main.xlsx
+++ b/element_info_datas/main/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13275" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>元素变量名</t>
   </si>
@@ -52,6 +52,15 @@
     <t>//li[@data-id="my"]</t>
   </si>
   <si>
+    <t>scedule_name</t>
+  </si>
+  <si>
+    <t>我的地盘-日程名称</t>
+  </si>
+  <si>
+    <t>//a[@href="/biz/my-calendar.html"]</t>
+  </si>
+  <si>
     <t>product_menu</t>
   </si>
   <si>
@@ -59,6 +68,87 @@
   </si>
   <si>
     <t>//li[@data-id="product"]</t>
+  </si>
+  <si>
+    <t>story_name</t>
+  </si>
+  <si>
+    <t>项目-故事</t>
+  </si>
+  <si>
+    <t>//a[@href="/biz/product-browse-1.html"]</t>
+  </si>
+  <si>
+    <t>iterate_menu</t>
+  </si>
+  <si>
+    <t>迭代</t>
+  </si>
+  <si>
+    <t>//li[@data-id="project"]</t>
+  </si>
+  <si>
+    <t>burndown_chart</t>
+  </si>
+  <si>
+    <t>迭代-燃尽图</t>
+  </si>
+  <si>
+    <t>//a[@href="/biz/project-burn-1.html"]</t>
+  </si>
+  <si>
+    <t>test_menu</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>//li[@data-id="qa"]</t>
+  </si>
+  <si>
+    <t>test_list</t>
+  </si>
+  <si>
+    <t>测试-测试单</t>
+  </si>
+  <si>
+    <t>//a[@href="/biz/testtask-browse-1.html"]</t>
+  </si>
+  <si>
+    <t>ops_menu</t>
+  </si>
+  <si>
+    <t>运维</t>
+  </si>
+  <si>
+    <t>//li[@data-id="ops"]</t>
+  </si>
+  <si>
+    <t>engine_room</t>
+  </si>
+  <si>
+    <t>运维-机房</t>
+  </si>
+  <si>
+    <t>//a[@href="/biz/serverroom-browse.html"]</t>
+  </si>
+  <si>
+    <t>office_menu</t>
+  </si>
+  <si>
+    <t>办公</t>
+  </si>
+  <si>
+    <t>//li[@data-id="oa"]</t>
+  </si>
+  <si>
+    <t>attendance</t>
+  </si>
+  <si>
+    <t>办公-考勤</t>
+  </si>
+  <si>
+    <t>//a[@href="/biz/attend-personal.html"]</t>
   </si>
   <si>
     <t>username_show_span</t>
@@ -140,8 +230,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,6 +248,80 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -174,24 +338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,43 +355,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -250,53 +362,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,25 +407,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,145 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,8 +603,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -565,6 +657,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -582,26 +692,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -616,10 +706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,31 +718,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,104 +757,98 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +860,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1090,15 +1183,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
@@ -1228,7 +1323,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1264,7 +1359,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1300,7 +1395,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1316,6 +1411,186 @@
         <v>3</v>
       </c>
       <c r="F12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
